--- a/Team-Data/2014-15/3-5-2014-15.xlsx
+++ b/Team-Data/2014-15/3-5-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>6.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -759,7 +826,7 @@
         <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
@@ -1177,7 +1244,7 @@
         <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1353,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="n">
         <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>0.629</v>
+        <v>0.623</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J6" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K6" t="n">
         <v>0.44</v>
@@ -1424,7 +1491,7 @@
         <v>21.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O6" t="n">
         <v>20.2</v>
@@ -1433,28 +1500,28 @@
         <v>25.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R6" t="n">
         <v>12.3</v>
       </c>
       <c r="S6" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T6" t="n">
         <v>46</v>
       </c>
       <c r="U6" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V6" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W6" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y6" t="n">
         <v>5.4</v>
@@ -1463,19 +1530,19 @@
         <v>18.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="AC6" t="n">
         <v>2.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>8</v>
@@ -1487,7 +1554,7 @@
         <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1520,13 +1587,13 @@
         <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1535,13 +1602,13 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
       </c>
       <c r="BA6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -1669,19 +1736,19 @@
         <v>28</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN7" t="n">
         <v>11</v>
@@ -1690,7 +1757,7 @@
         <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -1773,46 +1840,46 @@
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J8" t="n">
-        <v>85.8</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.463</v>
       </c>
       <c r="L8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M8" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O8" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="P8" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R8" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
         <v>22.6</v>
       </c>
       <c r="V8" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W8" t="n">
         <v>8.199999999999999</v>
@@ -1821,7 +1888,7 @@
         <v>4.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z8" t="n">
         <v>19.6</v>
@@ -1830,10 +1897,10 @@
         <v>21.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.8</v>
+        <v>105.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AD8" t="n">
         <v>2</v>
@@ -1848,43 +1915,43 @@
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AM8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN8" t="n">
         <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
         <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1899,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2054,13 +2121,13 @@
         <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
       </c>
       <c r="AR9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS9" t="n">
         <v>14</v>
@@ -2072,7 +2139,7 @@
         <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2215,10 +2282,10 @@
         <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
         <v>27</v>
@@ -2233,7 +2300,7 @@
         <v>19</v>
       </c>
       <c r="AO10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
@@ -2254,13 +2321,13 @@
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
         <v>15</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2269,7 +2336,7 @@
         <v>7</v>
       </c>
       <c r="BA10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2421,7 +2488,7 @@
         <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2451,7 +2518,7 @@
         <v>15</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" t="n">
         <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.672</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84.2</v>
+        <v>84</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
@@ -2513,19 +2580,19 @@
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O12" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R12" t="n">
         <v>12.1</v>
@@ -2534,7 +2601,7 @@
         <v>31.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
         <v>22</v>
@@ -2543,31 +2610,31 @@
         <v>16.9</v>
       </c>
       <c r="W12" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="X12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2576,10 +2643,10 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2594,16 +2661,16 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR12" t="n">
         <v>6</v>
@@ -2621,19 +2688,19 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX12" t="n">
         <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>18</v>
@@ -2800,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -2946,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2967,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
@@ -2976,7 +3043,7 @@
         <v>10</v>
       </c>
       <c r="AT14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -2994,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" t="n">
-        <v>0.271</v>
+        <v>0.267</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
         <v>6.7</v>
       </c>
       <c r="M15" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O15" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="P15" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T15" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>12.9</v>
@@ -3095,22 +3162,22 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
@@ -3143,10 +3210,10 @@
         <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
@@ -3170,16 +3237,16 @@
         <v>19</v>
       </c>
       <c r="AX15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="BA15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
         <v>8</v>
@@ -3355,13 +3422,13 @@
         <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>19</v>
@@ -3507,10 +3574,10 @@
         <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
@@ -3713,7 +3780,7 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX18" t="n">
         <v>14</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3892,7 +3959,7 @@
         <v>13</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
         <v>8</v>
@@ -3907,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="BA19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -3942,58 +4009,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" t="n">
         <v>28</v>
       </c>
       <c r="G20" t="n">
-        <v>0.533</v>
+        <v>0.541</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.8</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O20" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="S20" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T20" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V20" t="n">
         <v>13.3</v>
@@ -4002,46 +4069,46 @@
         <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
         <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
         <v>19</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>23</v>
@@ -4050,7 +4117,7 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
         <v>14</v>
@@ -4059,16 +4126,16 @@
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
         <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
@@ -4080,7 +4147,7 @@
         <v>26</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4089,7 +4156,7 @@
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4373,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" t="n">
         <v>34</v>
       </c>
       <c r="F22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" t="n">
-        <v>0.548</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J22" t="n">
         <v>86.2</v>
@@ -4336,13 +4403,13 @@
         <v>22.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.328</v>
+        <v>0.327</v>
       </c>
       <c r="O22" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P22" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q22" t="n">
         <v>0.761</v>
@@ -4354,22 +4421,22 @@
         <v>35.3</v>
       </c>
       <c r="T22" t="n">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
       <c r="U22" t="n">
         <v>20.5</v>
       </c>
       <c r="V22" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W22" t="n">
         <v>7.2</v>
       </c>
       <c r="X22" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z22" t="n">
         <v>22.2</v>
@@ -4378,25 +4445,25 @@
         <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4426,10 +4493,10 @@
         <v>16</v>
       </c>
       <c r="AR22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -4444,16 +4511,16 @@
         <v>22</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -4488,85 +4555,85 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" t="n">
-        <v>0.311</v>
+        <v>0.306</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.351</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="P23" t="n">
         <v>19.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R23" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T23" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W23" t="n">
         <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA23" t="n">
         <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4578,7 +4645,7 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
@@ -4587,7 +4654,7 @@
         <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>22</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4620,7 +4687,7 @@
         <v>27</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
@@ -4629,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4784,7 +4851,7 @@
         <v>17</v>
       </c>
       <c r="AP24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4796,7 +4863,7 @@
         <v>26</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
         <v>25</v>
@@ -4805,16 +4872,16 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -4933,7 +5000,7 @@
         <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
@@ -4942,7 +5009,7 @@
         <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -4954,7 +5021,7 @@
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -5034,22 +5101,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" t="n">
         <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.678</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J26" t="n">
         <v>85.90000000000001</v>
@@ -5061,7 +5128,7 @@
         <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="N26" t="n">
         <v>0.361</v>
@@ -5073,25 +5140,25 @@
         <v>20.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.802</v>
+        <v>0.8</v>
       </c>
       <c r="R26" t="n">
         <v>10.8</v>
       </c>
       <c r="S26" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="T26" t="n">
-        <v>46.1</v>
+        <v>45.9</v>
       </c>
       <c r="U26" t="n">
         <v>22.1</v>
       </c>
       <c r="V26" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X26" t="n">
         <v>4.9</v>
@@ -5100,22 +5167,22 @@
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AE26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
         <v>4</v>
@@ -5124,10 +5191,10 @@
         <v>4</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
         <v>7</v>
@@ -5154,19 +5221,19 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
@@ -5175,7 +5242,7 @@
         <v>11</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28" t="n">
         <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>0.61</v>
+        <v>0.617</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,43 +5483,43 @@
         <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.358</v>
+        <v>0.361</v>
       </c>
       <c r="O28" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P28" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R28" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
         <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W28" t="n">
         <v>7.7</v>
@@ -5470,13 +5537,13 @@
         <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AC28" t="n">
         <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5494,10 +5561,10 @@
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5509,13 +5576,13 @@
         <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
@@ -5530,7 +5597,7 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
@@ -5545,7 +5612,7 @@
         <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB28" t="n">
         <v>13</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -5658,25 +5725,25 @@
         <v>3.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
         <v>8</v>
       </c>
       <c r="AG29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH29" t="n">
         <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>13</v>
@@ -5688,7 +5755,7 @@
         <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5724,7 +5791,7 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE30" t="n">
         <v>21</v>
@@ -5882,13 +5949,13 @@
         <v>25</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6088,7 +6155,7 @@
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-5-2014-15</t>
+          <t>2015-03-05</t>
         </is>
       </c>
     </row>
